--- a/LOGS/7d77670e-efd3-4763-ac7e-54a770a431a9/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/7d77670e-efd3-4763-ac7e-54a770a431a9/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="40">
   <si>
     <t>rows</t>
   </si>
@@ -42,9 +42,15 @@
     <t>value</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>4. Intercompany receivable</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>5. Trade receivables</t>
   </si>
   <si>
@@ -60,9 +66,15 @@
     <t>5. Total</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>6. Finished goods</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>7. Prepayment</t>
   </si>
   <si>
@@ -72,6 +84,9 @@
     <t>7. Total</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>Land At cost</t>
   </si>
   <si>
@@ -81,6 +96,9 @@
     <t>Land Total</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>11. Accounts payable</t>
   </si>
   <si>
@@ -90,12 +108,18 @@
     <t>11. Total</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>12. PROVISIONS for annual and long service leave</t>
   </si>
   <si>
     <t>12. PROVISIONS Provision for annual and long service leave (current) Provision long service leave (non-current)</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>Secured - at amortised cost Current</t>
   </si>
   <si>
@@ -105,6 +129,9 @@
     <t>Secured - at amortised cost Total</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>Operating Revenue Revenue &amp; reimbursements</t>
   </si>
   <si>
@@ -118,6 +145,9 @@
   </si>
   <si>
     <t>Other Revenue Total other revenue</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -475,13 +505,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,10 +524,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -505,16 +538,22 @@
       <c r="D2">
         <v>7327131</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>9440013</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -572,13 +611,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,10 +630,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -602,10 +644,13 @@
       <c r="D2">
         <v>48588449</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -613,10 +658,13 @@
       <c r="D3">
         <v>48588449</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -624,10 +672,13 @@
       <c r="D4">
         <v>19201</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -635,10 +686,13 @@
       <c r="D5">
         <v>156454</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -646,10 +700,13 @@
       <c r="D6">
         <v>175655</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -657,10 +714,13 @@
       <c r="D7">
         <v>45712841</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -668,10 +728,13 @@
       <c r="D8">
         <v>45712841</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -679,10 +742,13 @@
       <c r="D9">
         <v>121104</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -690,16 +756,22 @@
       <c r="D10">
         <v>20199</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C11">
         <v>2022</v>
       </c>
       <c r="D11">
         <v>141303</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -721,13 +793,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,10 +812,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -751,10 +826,13 @@
       <c r="D2">
         <v>455055</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -762,10 +840,13 @@
       <c r="D3">
         <v>422808</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -773,10 +854,13 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -784,10 +868,13 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -795,10 +882,13 @@
       <c r="D6">
         <v>877863</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -806,10 +896,13 @@
       <c r="D7">
         <v>11662</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -817,10 +910,13 @@
       <c r="D8">
         <v>434644</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -828,10 +924,13 @@
       <c r="D9">
         <v>2340</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -839,16 +938,22 @@
       <c r="D10">
         <v>818</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>2022</v>
       </c>
       <c r="D11">
         <v>449464</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -858,13 +963,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,10 +982,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -888,16 +996,22 @@
       <c r="D2">
         <v>7981563</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>6284788</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -907,13 +1021,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -926,10 +1040,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -937,10 +1054,13 @@
       <c r="D2">
         <v>9938</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -948,10 +1068,13 @@
       <c r="D3">
         <v>282189</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -959,10 +1082,13 @@
       <c r="D4">
         <v>292127</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -970,10 +1096,13 @@
       <c r="D5">
         <v>75213</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -981,16 +1110,22 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>75213</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1000,13 +1135,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,10 +1154,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1030,10 +1168,13 @@
       <c r="D2">
         <v>8179443</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1041,10 +1182,13 @@
       <c r="D3">
         <v>-263853</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1052,10 +1196,13 @@
       <c r="D4">
         <v>7915590</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1063,10 +1210,13 @@
       <c r="D5">
         <v>8417355</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1074,16 +1224,22 @@
       <c r="D6">
         <v>-237912</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>8179443</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1093,13 +1249,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,10 +1268,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1123,10 +1282,13 @@
       <c r="D2">
         <v>4590154</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1134,10 +1296,13 @@
       <c r="D3">
         <v>1252674</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1145,10 +1310,13 @@
       <c r="D4">
         <v>5842828</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1156,10 +1324,13 @@
       <c r="D5">
         <v>4734326</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1167,16 +1338,22 @@
       <c r="D6">
         <v>619756</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>5354082</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1186,13 +1363,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1205,10 +1382,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1216,10 +1396,13 @@
       <c r="D2">
         <v>138247</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1227,10 +1410,13 @@
       <c r="D3">
         <v>9722</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1238,10 +1424,13 @@
       <c r="D4">
         <v>147969</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1249,10 +1438,13 @@
       <c r="D5">
         <v>98588</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1260,16 +1452,22 @@
       <c r="D6">
         <v>4636</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>103224</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1279,13 +1477,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1298,10 +1496,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1309,10 +1510,13 @@
       <c r="D2">
         <v>543600</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1320,10 +1524,13 @@
       <c r="D3">
         <v>7812864</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1331,10 +1538,13 @@
       <c r="D4">
         <v>8356464</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1342,10 +1552,13 @@
       <c r="D5">
         <v>543600</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1353,16 +1566,22 @@
       <c r="D6">
         <v>7932652</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>8476252</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/LOGS/7d77670e-efd3-4763-ac7e-54a770a431a9/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/7d77670e-efd3-4763-ac7e-54a770a431a9/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="44">
   <si>
     <t>rows</t>
   </si>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>None Fixed assets</t>
+  </si>
+  <si>
+    <t>None Others</t>
+  </si>
+  <si>
+    <t>None Deferred tax liability temporary differences</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>Operating Revenue Revenue &amp; reimbursements</t>
@@ -636,7 +648,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -645,12 +657,12 @@
         <v>48588449</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -659,12 +671,12 @@
         <v>48588449</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -673,12 +685,12 @@
         <v>19201</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -687,12 +699,12 @@
         <v>156454</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -701,12 +713,12 @@
         <v>175655</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -715,12 +727,12 @@
         <v>45712841</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -729,12 +741,12 @@
         <v>45712841</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -743,12 +755,12 @@
         <v>121104</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -757,12 +769,12 @@
         <v>20199</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -771,7 +783,7 @@
         <v>141303</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1591,12 +1603,114 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>-1290143</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>199690</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>-1090453</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>-1168556</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6">
+        <v>4972</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7">
+        <v>-1163584</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>